--- a/ProblemsSolved.xlsx
+++ b/ProblemsSolved.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kalyan.Priyanka\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kalyan.Priyanka\IdeaProjects\lc_1000_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{355AEBCA-CD17-4191-BCF2-328BEB144611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22955F43-1E6B-4151-8B1C-61444FB6904F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3384" yWindow="2940" windowWidth="17280" windowHeight="9420" xr2:uid="{10A86EBD-2933-469A-9087-8A02B7160FF7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{10A86EBD-2933-469A-9087-8A02B7160FF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,35 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>Problem Desc</t>
+  </si>
+  <si>
+    <t>Heap</t>
+  </si>
+  <si>
+    <t>Heap ADT</t>
+  </si>
+  <si>
+    <t>Problem Link/Details</t>
+  </si>
+  <si>
+    <t>ClassName</t>
+  </si>
+  <si>
+    <t>HeapImpl.java</t>
+  </si>
+  <si>
+    <t>SerialNo</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -378,12 +407,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE995BB3-FC62-41CD-BCB1-0A258C74D3CB}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ProblemsSolved.xlsx
+++ b/ProblemsSolved.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kalyan.Priyanka\IdeaProjects\lc_1000_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22955F43-1E6B-4151-8B1C-61444FB6904F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9931FEAC-F583-42FB-B090-D5F7FBB2C72C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{10A86EBD-2933-469A-9087-8A02B7160FF7}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Topic</t>
   </si>
@@ -56,6 +56,39 @@
   </si>
   <si>
     <t>SerialNo</t>
+  </si>
+  <si>
+    <t>Finding kth Smallest element in Min Heap</t>
+  </si>
+  <si>
+    <t>Code/Algo</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>T.C</t>
+  </si>
+  <si>
+    <t>S.C</t>
+  </si>
+  <si>
+    <t>O(klogn), O(klogk)</t>
+  </si>
+  <si>
+    <t>O(1),O(k)</t>
+  </si>
+  <si>
+    <t>Merge K sorted arrays of size n each</t>
+  </si>
+  <si>
+    <t>O(nk2),O(nklogk)</t>
+  </si>
+  <si>
+    <t>Median of numbers in infinite stream of integers</t>
   </si>
 </sst>
 </file>
@@ -407,20 +440,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE995BB3-FC62-41CD-BCB1-0A258C74D3CB}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.77734375" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12.109375" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -431,13 +467,22 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -447,8 +492,53 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/ProblemsSolved.xlsx
+++ b/ProblemsSolved.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kalyan.Priyanka\IdeaProjects\lc_1000_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9931FEAC-F583-42FB-B090-D5F7FBB2C72C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D957DB5E-76A3-4F16-8943-0879F608D764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{10A86EBD-2933-469A-9087-8A02B7160FF7}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9420" xr2:uid="{10A86EBD-2933-469A-9087-8A02B7160FF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Topic</t>
   </si>
@@ -89,19 +89,27 @@
   </si>
   <si>
     <t>Median of numbers in infinite stream of integers</t>
+  </si>
+  <si>
+    <t>MedianInfiniteStream</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <name val="Comic Sans MS"/>
+      <family val="4"/>
     </font>
   </fonts>
   <fills count="2">
@@ -124,8 +132,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,7 +454,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -530,7 +541,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -539,9 +550,13 @@
       </c>
       <c r="D5" t="s">
         <v>10</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ProblemsSolved.xlsx
+++ b/ProblemsSolved.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kalyan.Priyanka\IdeaProjects\lc_1000_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D957DB5E-76A3-4F16-8943-0879F608D764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4DE3D3-78E0-45F8-B377-C36D5D1F955E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9420" xr2:uid="{10A86EBD-2933-469A-9087-8A02B7160FF7}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>Topic</t>
   </si>
@@ -92,6 +92,18 @@
   </si>
   <si>
     <t>MedianInfiniteStream</t>
+  </si>
+  <si>
+    <t>Insertion Sort</t>
+  </si>
+  <si>
+    <t>O(n2)</t>
+  </si>
+  <si>
+    <t>O(1)</t>
+  </si>
+  <si>
+    <t>InsertionSort</t>
   </si>
 </sst>
 </file>
@@ -451,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE995BB3-FC62-41CD-BCB1-0A258C74D3CB}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -555,6 +567,26 @@
         <v>19</v>
       </c>
     </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ProblemsSolved.xlsx
+++ b/ProblemsSolved.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kalyan.Priyanka\IdeaProjects\lc_1000_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4DE3D3-78E0-45F8-B377-C36D5D1F955E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254C9421-C5F2-4ED4-83C4-8475F6D716EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9420" xr2:uid="{10A86EBD-2933-469A-9087-8A02B7160FF7}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>Topic</t>
   </si>
@@ -104,6 +104,18 @@
   </si>
   <si>
     <t>InsertionSort</t>
+  </si>
+  <si>
+    <t>Merge Sort</t>
+  </si>
+  <si>
+    <t>O(nlogn)</t>
+  </si>
+  <si>
+    <t>O(n)</t>
+  </si>
+  <si>
+    <t>MergeSort ( Stable sorting algo)</t>
   </si>
 </sst>
 </file>
@@ -463,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE995BB3-FC62-41CD-BCB1-0A258C74D3CB}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -587,6 +599,26 @@
         <v>23</v>
       </c>
     </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ProblemsSolved.xlsx
+++ b/ProblemsSolved.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kalyan.Priyanka\IdeaProjects\lc_1000_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254C9421-C5F2-4ED4-83C4-8475F6D716EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B49EF7F-D576-4FA2-807D-B27C9752779F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9420" xr2:uid="{10A86EBD-2933-469A-9087-8A02B7160FF7}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>Topic</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>MergeSort ( Stable sorting algo)</t>
+  </si>
+  <si>
+    <t>Quick sort</t>
+  </si>
+  <si>
+    <t>QuickSort</t>
   </si>
 </sst>
 </file>
@@ -475,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE995BB3-FC62-41CD-BCB1-0A258C74D3CB}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -619,6 +625,26 @@
         <v>27</v>
       </c>
     </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ProblemsSolved.xlsx
+++ b/ProblemsSolved.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kalyan.Priyanka\IdeaProjects\lc_1000_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B49EF7F-D576-4FA2-807D-B27C9752779F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90549C17-C891-4D06-9DBD-949A52F4CA0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9420" xr2:uid="{10A86EBD-2933-469A-9087-8A02B7160FF7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{10A86EBD-2933-469A-9087-8A02B7160FF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>Topic</t>
   </si>
@@ -122,6 +122,18 @@
   </si>
   <si>
     <t>QuickSort</t>
+  </si>
+  <si>
+    <t>Selection Algorith</t>
+  </si>
+  <si>
+    <t>Used to find kth position element in sorted array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O(n2) </t>
+  </si>
+  <si>
+    <t>Selection</t>
   </si>
 </sst>
 </file>
@@ -481,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE995BB3-FC62-41CD-BCB1-0A258C74D3CB}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -645,6 +657,26 @@
         <v>29</v>
       </c>
     </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ProblemsSolved.xlsx
+++ b/ProblemsSolved.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kalyan.Priyanka\IdeaProjects\lc_1000_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90549C17-C891-4D06-9DBD-949A52F4CA0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB765774-710B-4BCC-851E-BE9FFF120EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{10A86EBD-2933-469A-9087-8A02B7160FF7}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>Topic</t>
   </si>
@@ -134,6 +134,12 @@
   </si>
   <si>
     <t>Selection</t>
+  </si>
+  <si>
+    <t>GraphAL</t>
+  </si>
+  <si>
+    <t>Adjanceny list impl of graph</t>
   </si>
 </sst>
 </file>
@@ -493,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE995BB3-FC62-41CD-BCB1-0A258C74D3CB}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -677,6 +683,20 @@
         <v>33</v>
       </c>
     </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ProblemsSolved.xlsx
+++ b/ProblemsSolved.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kalyan.Priyanka\IdeaProjects\lc_1000_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB765774-710B-4BCC-851E-BE9FFF120EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FEFD689-4068-42EA-8635-CC825B33D333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{10A86EBD-2933-469A-9087-8A02B7160FF7}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>Topic</t>
   </si>
@@ -140,6 +140,18 @@
   </si>
   <si>
     <t>Adjanceny list impl of graph</t>
+  </si>
+  <si>
+    <t>BFS</t>
+  </si>
+  <si>
+    <t>Depth First Search in Graph</t>
+  </si>
+  <si>
+    <t>Breadth First search in Graph</t>
+  </si>
+  <si>
+    <t>DFS</t>
   </si>
 </sst>
 </file>
@@ -499,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE995BB3-FC62-41CD-BCB1-0A258C74D3CB}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -697,6 +709,28 @@
         <v>34</v>
       </c>
     </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ProblemsSolved.xlsx
+++ b/ProblemsSolved.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kalyan.Priyanka\IdeaProjects\lc_1000_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FEFD689-4068-42EA-8635-CC825B33D333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A226B195-7429-4052-A3BE-63B22C72A982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{10A86EBD-2933-469A-9087-8A02B7160FF7}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9420" xr2:uid="{10A86EBD-2933-469A-9087-8A02B7160FF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>Topic</t>
   </si>
@@ -152,6 +152,12 @@
   </si>
   <si>
     <t>DFS</t>
+  </si>
+  <si>
+    <t>Trie implementation</t>
+  </si>
+  <si>
+    <t>Trie</t>
   </si>
 </sst>
 </file>
@@ -511,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE995BB3-FC62-41CD-BCB1-0A258C74D3CB}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -731,6 +737,17 @@
         <v>39</v>
       </c>
     </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ProblemsSolved.xlsx
+++ b/ProblemsSolved.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kalyan.Priyanka\IdeaProjects\lc_1000_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A226B195-7429-4052-A3BE-63B22C72A982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E571593-FFBE-498E-96AC-D1596CEBCA5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9420" xr2:uid="{10A86EBD-2933-469A-9087-8A02B7160FF7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{10A86EBD-2933-469A-9087-8A02B7160FF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>Topic</t>
   </si>
@@ -158,6 +158,12 @@
   </si>
   <si>
     <t>Trie</t>
+  </si>
+  <si>
+    <t>CustomLinkedList</t>
+  </si>
+  <si>
+    <t>Impl of SLL with insert, delete, search, display etc</t>
   </si>
 </sst>
 </file>
@@ -517,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE995BB3-FC62-41CD-BCB1-0A258C74D3CB}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -748,6 +754,20 @@
         <v>41</v>
       </c>
     </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ProblemsSolved.xlsx
+++ b/ProblemsSolved.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kalyan.Priyanka\IdeaProjects\lc_1000_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E571593-FFBE-498E-96AC-D1596CEBCA5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05420313-737F-4A5C-BA2C-1C04FA0F62C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{10A86EBD-2933-469A-9087-8A02B7160FF7}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
   <si>
     <t>Topic</t>
   </si>
@@ -164,6 +164,12 @@
   </si>
   <si>
     <t>Impl of SLL with insert, delete, search, display etc</t>
+  </si>
+  <si>
+    <t>Detect Loop and Remove Loop</t>
+  </si>
+  <si>
+    <t>RemoveLoop</t>
   </si>
 </sst>
 </file>
@@ -523,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE995BB3-FC62-41CD-BCB1-0A258C74D3CB}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -768,6 +774,17 @@
         <v>42</v>
       </c>
     </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ProblemsSolved.xlsx
+++ b/ProblemsSolved.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kalyan.Priyanka\IdeaProjects\lc_1000_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05420313-737F-4A5C-BA2C-1C04FA0F62C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9945B0C5-0831-464B-8C11-F1250A96AB75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{10A86EBD-2933-469A-9087-8A02B7160FF7}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9420" xr2:uid="{10A86EBD-2933-469A-9087-8A02B7160FF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
   <si>
     <t>Topic</t>
   </si>
@@ -170,6 +170,15 @@
   </si>
   <si>
     <t>RemoveLoop</t>
+  </si>
+  <si>
+    <t>Checking for Anagrams - Hash</t>
+  </si>
+  <si>
+    <t>CheckAnagrams</t>
+  </si>
+  <si>
+    <t>Hash related problems</t>
   </si>
 </sst>
 </file>
@@ -529,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE995BB3-FC62-41CD-BCB1-0A258C74D3CB}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -785,6 +794,20 @@
         <v>45</v>
       </c>
     </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ProblemsSolved.xlsx
+++ b/ProblemsSolved.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kalyan.Priyanka\IdeaProjects\lc_1000_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9945B0C5-0831-464B-8C11-F1250A96AB75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1512B4E8-EB8C-4691-A404-DEF34D26A9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9420" xr2:uid="{10A86EBD-2933-469A-9087-8A02B7160FF7}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
   <si>
     <t>Topic</t>
   </si>
@@ -179,6 +179,15 @@
   </si>
   <si>
     <t>Hash related problems</t>
+  </si>
+  <si>
+    <t>Check for first repeated character</t>
+  </si>
+  <si>
+    <t>Hash - BitSet</t>
+  </si>
+  <si>
+    <t>CheckFirstDuplicateUsingBitSet</t>
   </si>
 </sst>
 </file>
@@ -538,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE995BB3-FC62-41CD-BCB1-0A258C74D3CB}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -808,6 +817,20 @@
         <v>47</v>
       </c>
     </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ProblemsSolved.xlsx
+++ b/ProblemsSolved.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kalyan.Priyanka\IdeaProjects\lc_1000_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1512B4E8-EB8C-4691-A404-DEF34D26A9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB84F5C1-6BFB-408F-B620-DE57D542D181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9420" xr2:uid="{10A86EBD-2933-469A-9087-8A02B7160FF7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{10A86EBD-2933-469A-9087-8A02B7160FF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
   <si>
     <t>Topic</t>
   </si>
@@ -188,6 +188,21 @@
   </si>
   <si>
     <t>CheckFirstDuplicateUsingBitSet</t>
+  </si>
+  <si>
+    <t>Stack implemented using LL</t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>StackUsingLL</t>
+  </si>
+  <si>
+    <t>Super Stack</t>
+  </si>
+  <si>
+    <t>Supports finding max element in O(1)</t>
   </si>
 </sst>
 </file>
@@ -547,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE995BB3-FC62-41CD-BCB1-0A258C74D3CB}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -831,6 +846,31 @@
         <v>51</v>
       </c>
     </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ProblemsSolved.xlsx
+++ b/ProblemsSolved.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kalyan.Priyanka\IdeaProjects\lc_1000_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB84F5C1-6BFB-408F-B620-DE57D542D181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E07C30D-574C-4AF0-B165-9D3209E40ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{10A86EBD-2933-469A-9087-8A02B7160FF7}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
   <si>
     <t>Topic</t>
   </si>
@@ -203,6 +203,15 @@
   </si>
   <si>
     <t>Supports finding max element in O(1)</t>
+  </si>
+  <si>
+    <t>Queue using LL</t>
+  </si>
+  <si>
+    <t>QueueUsingLL</t>
+  </si>
+  <si>
+    <t>SuperStack</t>
   </si>
 </sst>
 </file>
@@ -562,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE995BB3-FC62-41CD-BCB1-0A258C74D3CB}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -867,8 +876,22 @@
       <c r="B19" t="s">
         <v>55</v>
       </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
       <c r="H19" t="s">
-        <v>56</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/ProblemsSolved.xlsx
+++ b/ProblemsSolved.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kalyan.Priyanka\IdeaProjects\lc_1000_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E07C30D-574C-4AF0-B165-9D3209E40ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2052A3E5-3BC0-42C9-9A92-EF662C731DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{10A86EBD-2933-469A-9087-8A02B7160FF7}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
   <si>
     <t>Topic</t>
   </si>
@@ -212,6 +212,12 @@
   </si>
   <si>
     <t>SuperStack</t>
+  </si>
+  <si>
+    <t>Super Queue</t>
+  </si>
+  <si>
+    <t>SuperQueue</t>
   </si>
 </sst>
 </file>
@@ -571,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE995BB3-FC62-41CD-BCB1-0A258C74D3CB}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -894,6 +900,20 @@
         <v>58</v>
       </c>
     </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ProblemsSolved.xlsx
+++ b/ProblemsSolved.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kalyan.Priyanka\IdeaProjects\lc_1000_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2052A3E5-3BC0-42C9-9A92-EF662C731DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FDECCC8-217F-409A-8B13-9CD3FC80D3FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{10A86EBD-2933-469A-9087-8A02B7160FF7}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="68">
   <si>
     <t>Topic</t>
   </si>
@@ -218,6 +218,24 @@
   </si>
   <si>
     <t>SuperQueue</t>
+  </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>Complete binary tree impl</t>
+  </si>
+  <si>
+    <t>Breadth First search</t>
+  </si>
+  <si>
+    <t>BFS in tree</t>
+  </si>
+  <si>
+    <t>Threaded BT : Inorder traversal and conversion to Threaded BT</t>
+  </si>
+  <si>
+    <t>ThreadedBT</t>
   </si>
 </sst>
 </file>
@@ -577,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE995BB3-FC62-41CD-BCB1-0A258C74D3CB}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -914,6 +932,45 @@
         <v>61</v>
       </c>
     </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" t="s">
+        <v>63</v>
+      </c>
+      <c r="H22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ProblemsSolved.xlsx
+++ b/ProblemsSolved.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kalyan.Priyanka\IdeaProjects\lc_1000_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FDECCC8-217F-409A-8B13-9CD3FC80D3FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34B253F-C770-4FAF-9DEC-29B3D93FCE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{10A86EBD-2933-469A-9087-8A02B7160FF7}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
   <si>
     <t>Topic</t>
   </si>
@@ -236,6 +237,12 @@
   </si>
   <si>
     <t>ThreadedBT</t>
+  </si>
+  <si>
+    <t>Diameter of binary tree</t>
+  </si>
+  <si>
+    <t>DiameterOfBT</t>
   </si>
 </sst>
 </file>
@@ -595,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE995BB3-FC62-41CD-BCB1-0A258C74D3CB}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -971,6 +978,17 @@
         <v>67</v>
       </c>
     </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>68</v>
+      </c>
+      <c r="H25" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ProblemsSolved.xlsx
+++ b/ProblemsSolved.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kalyan.Priyanka\IdeaProjects\lc_1000_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34B253F-C770-4FAF-9DEC-29B3D93FCE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FBF22C-5DCA-41F1-AC24-82C90B770B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{10A86EBD-2933-469A-9087-8A02B7160FF7}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="76">
   <si>
     <t>Topic</t>
   </si>
@@ -243,6 +243,24 @@
   </si>
   <si>
     <t>DiameterOfBT</t>
+  </si>
+  <si>
+    <t>Diameter of tree represented as edges</t>
+  </si>
+  <si>
+    <t>TreeDiameter</t>
+  </si>
+  <si>
+    <t>check if nodes in given BSTs sum to a given value</t>
+  </si>
+  <si>
+    <t>TwoSumBST</t>
+  </si>
+  <si>
+    <t>Print Boudary of BT</t>
+  </si>
+  <si>
+    <t>BoundaryOfBT</t>
   </si>
 </sst>
 </file>
@@ -602,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE995BB3-FC62-41CD-BCB1-0A258C74D3CB}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -989,6 +1007,39 @@
         <v>69</v>
       </c>
     </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>70</v>
+      </c>
+      <c r="H26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>72</v>
+      </c>
+      <c r="H27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>74</v>
+      </c>
+      <c r="H28" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ProblemsSolved.xlsx
+++ b/ProblemsSolved.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kalyan.Priyanka\IdeaProjects\lc_1000_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FBF22C-5DCA-41F1-AC24-82C90B770B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8EEB93-A709-41B8-BA90-07B9141479EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{10A86EBD-2933-469A-9087-8A02B7160FF7}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="78">
   <si>
     <t>Topic</t>
   </si>
@@ -261,6 +261,12 @@
   </si>
   <si>
     <t>BoundaryOfBT</t>
+  </si>
+  <si>
+    <t>BST all operations</t>
+  </si>
+  <si>
+    <t>BinarySearchTree</t>
   </si>
 </sst>
 </file>
@@ -620,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE995BB3-FC62-41CD-BCB1-0A258C74D3CB}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1040,6 +1046,17 @@
         <v>75</v>
       </c>
     </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>76</v>
+      </c>
+      <c r="H29" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ProblemsSolved.xlsx
+++ b/ProblemsSolved.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kalyan.Priyanka\IdeaProjects\lc_1000_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8EEB93-A709-41B8-BA90-07B9141479EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88002195-8608-42BE-8F65-4086A125DB1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{10A86EBD-2933-469A-9087-8A02B7160FF7}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="82">
   <si>
     <t>Topic</t>
   </si>
@@ -267,6 +267,18 @@
   </si>
   <si>
     <t>BinarySearchTree</t>
+  </si>
+  <si>
+    <t>Longest Band in array</t>
+  </si>
+  <si>
+    <t>LongestBand</t>
+  </si>
+  <si>
+    <t>Smallest Sub arary to sort in array</t>
+  </si>
+  <si>
+    <t>SmallestSubArrayToSort</t>
   </si>
 </sst>
 </file>
@@ -626,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE995BB3-FC62-41CD-BCB1-0A258C74D3CB}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1057,6 +1069,34 @@
         <v>77</v>
       </c>
     </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ProblemsSolved.xlsx
+++ b/ProblemsSolved.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kalyan.Priyanka\IdeaProjects\lc_1000_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88002195-8608-42BE-8F65-4086A125DB1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0186B8B5-B455-4B36-9857-578C4DC8E2FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{10A86EBD-2933-469A-9087-8A02B7160FF7}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="86">
   <si>
     <t>Topic</t>
   </si>
@@ -279,6 +278,18 @@
   </si>
   <si>
     <t>SmallestSubArrayToSort</t>
+  </si>
+  <si>
+    <t>Find largest mountain in an array</t>
+  </si>
+  <si>
+    <t>Mountain</t>
+  </si>
+  <si>
+    <t>Max water that gets trapped b/w buildings</t>
+  </si>
+  <si>
+    <t>RainWaterTrapping</t>
   </si>
 </sst>
 </file>
@@ -638,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE995BB3-FC62-41CD-BCB1-0A258C74D3CB}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1097,6 +1108,37 @@
         <v>81</v>
       </c>
     </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ProblemsSolved.xlsx
+++ b/ProblemsSolved.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kalyan.Priyanka\IdeaProjects\lc_1000_problems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nelluri\IdeaProjects\lc_1000_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0186B8B5-B455-4B36-9857-578C4DC8E2FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{10A86EBD-2933-469A-9087-8A02B7160FF7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="88">
   <si>
     <t>Topic</t>
   </si>
@@ -290,12 +289,18 @@
   </si>
   <si>
     <t>RainWaterTrapping</t>
+  </si>
+  <si>
+    <t>Min swaps required to sort array</t>
+  </si>
+  <si>
+    <t>MinSwapsRequiredToSortElements</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -648,11 +653,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE995BB3-FC62-41CD-BCB1-0A258C74D3CB}">
-  <dimension ref="A1:H33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1139,6 +1144,23 @@
         <v>85</v>
       </c>
     </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ProblemsSolved.xlsx
+++ b/ProblemsSolved.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="91">
   <si>
     <t>Topic</t>
   </si>
@@ -295,6 +295,15 @@
   </si>
   <si>
     <t>MinSwapsRequiredToSortElements</t>
+  </si>
+  <si>
+    <t>Find Max subarray sum</t>
+  </si>
+  <si>
+    <t>MaxSubarraySum</t>
+  </si>
+  <si>
+    <t>Space optimized</t>
   </si>
 </sst>
 </file>
@@ -654,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1161,6 +1170,20 @@
         <v>87</v>
       </c>
     </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" t="s">
+        <v>90</v>
+      </c>
+      <c r="H35" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ProblemsSolved.xlsx
+++ b/ProblemsSolved.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="93">
   <si>
     <t>Topic</t>
   </si>
@@ -304,6 +304,12 @@
   </si>
   <si>
     <t>Space optimized</t>
+  </si>
+  <si>
+    <t>Array products without using division</t>
+  </si>
+  <si>
+    <t>ArrayProducts</t>
   </si>
 </sst>
 </file>
@@ -663,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1184,6 +1190,17 @@
         <v>89</v>
       </c>
     </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>91</v>
+      </c>
+      <c r="H36" t="s">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ProblemsSolved.xlsx
+++ b/ProblemsSolved.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="95">
   <si>
     <t>Topic</t>
   </si>
@@ -310,6 +310,12 @@
   </si>
   <si>
     <t>ArrayProducts</t>
+  </si>
+  <si>
+    <t>Maximum number of activities that can be done</t>
+  </si>
+  <si>
+    <t>ActivitySelection</t>
   </si>
 </sst>
 </file>
@@ -669,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1201,6 +1207,17 @@
         <v>92</v>
       </c>
     </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>93</v>
+      </c>
+      <c r="H37" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ProblemsSolved.xlsx
+++ b/ProblemsSolved.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nelluri\IdeaProjects\lc_1000_problems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kalyan.Priyanka\IdeaProjects\lc_1000_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC46C03-7621-469E-9763-F2DB22199C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,19 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="98">
   <si>
     <t>Topic</t>
   </si>
@@ -316,12 +310,21 @@
   </si>
   <si>
     <t>ActivitySelection</t>
+  </si>
+  <si>
+    <t>Flatten BST to a Lnked List in place</t>
+  </si>
+  <si>
+    <t>FlattenInPlace</t>
+  </si>
+  <si>
+    <t>com.nelluri.bsts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -674,11 +677,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1218,6 +1221,28 @@
         <v>94</v>
       </c>
     </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>95</v>
+      </c>
+      <c r="E38" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" t="s">
+        <v>97</v>
+      </c>
+      <c r="H38" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ProblemsSolved.xlsx
+++ b/ProblemsSolved.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kalyan.Priyanka\IdeaProjects\lc_1000_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC46C03-7621-469E-9763-F2DB22199C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7D5271-B857-40B1-87DE-149E5DE36083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="100">
   <si>
     <t>Topic</t>
   </si>
@@ -319,6 +319,12 @@
   </si>
   <si>
     <t>com.nelluri.bsts</t>
+  </si>
+  <si>
+    <t>Find Inorder successor in a BST</t>
+  </si>
+  <si>
+    <t>FindInorderSuccessor</t>
   </si>
 </sst>
 </file>
@@ -681,7 +687,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1242,6 +1248,12 @@
       <c r="A39">
         <v>42</v>
       </c>
+      <c r="B39" t="s">
+        <v>98</v>
+      </c>
+      <c r="H39" t="s">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ProblemsSolved.xlsx
+++ b/ProblemsSolved.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kalyan.Priyanka\IdeaProjects\lc_1000_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7D5271-B857-40B1-87DE-149E5DE36083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080B2610-6E8C-4CF2-9D2D-0C3D78599C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="102">
   <si>
     <t>Topic</t>
   </si>
@@ -325,6 +325,12 @@
   </si>
   <si>
     <t>FindInorderSuccessor</t>
+  </si>
+  <si>
+    <t>Replace with Sum</t>
+  </si>
+  <si>
+    <t>ReplaceWithSum</t>
   </si>
 </sst>
 </file>
@@ -684,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1255,6 +1261,17 @@
         <v>99</v>
       </c>
     </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>100</v>
+      </c>
+      <c r="H40" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ProblemsSolved.xlsx
+++ b/ProblemsSolved.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kalyan.Priyanka\IdeaProjects\lc_1000_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080B2610-6E8C-4CF2-9D2D-0C3D78599C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1AE1304-A5AF-4D2D-8525-7FD2D650E371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="106">
   <si>
     <t>Topic</t>
   </si>
@@ -331,13 +331,25 @@
   </si>
   <si>
     <t>ReplaceWithSum</t>
+  </si>
+  <si>
+    <t>Max subset sum tree</t>
+  </si>
+  <si>
+    <t>MaxSubsetSumTree</t>
+  </si>
+  <si>
+    <t>NodesAtDistanceK for binary tree</t>
+  </si>
+  <si>
+    <t>NodesAtDistanceK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,6 +361,12 @@
       <sz val="9.8000000000000007"/>
       <name val="Comic Sans MS"/>
       <family val="4"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -371,9 +389,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -690,13 +711,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.77734375" bestFit="1" customWidth="1"/>
@@ -706,7 +727,7 @@
     <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -732,7 +753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -749,7 +770,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
@@ -766,7 +787,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
@@ -780,7 +801,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15.6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -794,7 +815,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>5</v>
       </c>
@@ -814,7 +835,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>6</v>
       </c>
@@ -834,7 +855,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>7</v>
       </c>
@@ -854,7 +875,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>8</v>
       </c>
@@ -874,7 +895,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>9</v>
       </c>
@@ -888,7 +909,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>10</v>
       </c>
@@ -899,7 +920,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>11</v>
       </c>
@@ -910,7 +931,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>12</v>
       </c>
@@ -921,7 +942,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>13</v>
       </c>
@@ -935,7 +956,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>14</v>
       </c>
@@ -946,7 +967,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>15</v>
       </c>
@@ -960,7 +981,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>16</v>
       </c>
@@ -974,7 +995,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>17</v>
       </c>
@@ -988,7 +1009,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1002,7 +1023,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1013,7 +1034,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1027,7 +1048,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1041,7 +1062,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1055,7 +1076,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1066,7 +1087,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1077,7 +1098,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1088,7 +1109,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>30</v>
       </c>
@@ -1099,7 +1120,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>31</v>
       </c>
@@ -1110,7 +1131,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>32</v>
       </c>
@@ -1121,7 +1142,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>33</v>
       </c>
@@ -1135,7 +1156,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>34</v>
       </c>
@@ -1149,7 +1170,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>35</v>
       </c>
@@ -1163,7 +1184,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>36</v>
       </c>
@@ -1180,7 +1201,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>37</v>
       </c>
@@ -1197,7 +1218,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>38</v>
       </c>
@@ -1211,7 +1232,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>39</v>
       </c>
@@ -1222,7 +1243,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>40</v>
       </c>
@@ -1233,7 +1254,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>41</v>
       </c>
@@ -1250,7 +1271,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>42</v>
       </c>
@@ -1261,7 +1282,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8">
       <c r="A40">
         <v>43</v>
       </c>
@@ -1270,6 +1291,28 @@
       </c>
       <c r="H40" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
+        <v>44</v>
+      </c>
+      <c r="B41" t="s">
+        <v>102</v>
+      </c>
+      <c r="H41" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>104</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/ProblemsSolved.xlsx
+++ b/ProblemsSolved.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kalyan.Priyanka\IdeaProjects\lc_1000_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1AE1304-A5AF-4D2D-8525-7FD2D650E371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9174507E-7913-48FE-B3E1-8C8657830623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="112">
   <si>
     <t>Topic</t>
   </si>
@@ -343,13 +343,31 @@
   </si>
   <si>
     <t>NodesAtDistanceK</t>
+  </si>
+  <si>
+    <t>Frequency of an element in sorted array</t>
+  </si>
+  <si>
+    <t>O(long)</t>
+  </si>
+  <si>
+    <t>FrequencyOfElement</t>
+  </si>
+  <si>
+    <t>binary search</t>
+  </si>
+  <si>
+    <t>search in rotated sorted array without finding pivot</t>
+  </si>
+  <si>
+    <t>RotatedSearch</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -361,12 +379,6 @@
       <sz val="9.8000000000000007"/>
       <name val="Comic Sans MS"/>
       <family val="4"/>
-    </font>
-    <font>
-      <sz val="9.8000000000000007"/>
-      <color rgb="FFA9B7C6"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -389,12 +401,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -711,13 +720,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.77734375" bestFit="1" customWidth="1"/>
@@ -727,7 +736,7 @@
     <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -753,7 +762,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -770,7 +779,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -787,7 +796,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -801,7 +810,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.6">
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -815,7 +824,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -835,7 +844,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -855,7 +864,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -875,7 +884,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -895,7 +904,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -909,7 +918,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -920,7 +929,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -931,7 +940,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -942,7 +951,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -956,7 +965,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -967,7 +976,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -981,7 +990,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -995,7 +1004,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1009,7 +1018,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1023,7 +1032,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1034,7 +1043,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1048,7 +1057,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1062,7 +1071,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1076,7 +1085,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1087,7 +1096,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1098,7 +1107,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1109,7 +1118,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>30</v>
       </c>
@@ -1120,7 +1129,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>31</v>
       </c>
@@ -1131,7 +1140,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>32</v>
       </c>
@@ -1142,7 +1151,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>33</v>
       </c>
@@ -1156,7 +1165,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>34</v>
       </c>
@@ -1170,7 +1179,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>35</v>
       </c>
@@ -1184,7 +1193,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>36</v>
       </c>
@@ -1201,7 +1210,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>37</v>
       </c>
@@ -1218,7 +1227,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>38</v>
       </c>
@@ -1232,7 +1241,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>39</v>
       </c>
@@ -1243,7 +1252,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>40</v>
       </c>
@@ -1254,7 +1263,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>41</v>
       </c>
@@ -1271,7 +1280,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>42</v>
       </c>
@@ -1282,7 +1291,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>43</v>
       </c>
@@ -1293,7 +1302,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>44</v>
       </c>
@@ -1304,15 +1313,46 @@
         <v>103</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>45</v>
       </c>
       <c r="B42" t="s">
         <v>104</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="H42" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>46</v>
+      </c>
+      <c r="B43" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" t="s">
+        <v>109</v>
+      </c>
+      <c r="E43" t="s">
+        <v>107</v>
+      </c>
+      <c r="H43" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>110</v>
+      </c>
+      <c r="E44" t="s">
+        <v>107</v>
+      </c>
+      <c r="H44" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/ProblemsSolved.xlsx
+++ b/ProblemsSolved.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kalyan.Priyanka\IdeaProjects\lc_1000_problems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nelluri\IdeaProjects\lc_1000_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9174507E-7913-48FE-B3E1-8C8657830623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="116">
   <si>
     <t>Topic</t>
   </si>
@@ -361,12 +360,24 @@
   </si>
   <si>
     <t>RotatedSearch</t>
+  </si>
+  <si>
+    <t>Cute little cat</t>
+  </si>
+  <si>
+    <t>CuteCatImpl</t>
+  </si>
+  <si>
+    <t>BiggestXOR problem</t>
+  </si>
+  <si>
+    <t>BiggestXOR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -719,11 +730,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1355,6 +1366,31 @@
         <v>111</v>
       </c>
     </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>48</v>
+      </c>
+      <c r="B45" t="s">
+        <v>112</v>
+      </c>
+      <c r="C45" t="s">
+        <v>41</v>
+      </c>
+      <c r="H45" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
+        <v>114</v>
+      </c>
+      <c r="H46" t="s">
+        <v>115</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ProblemsSolved.xlsx
+++ b/ProblemsSolved.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nelluri\IdeaProjects\lc_1000_problems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kalyan.Priyanka\IdeaProjects\lc_1000_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA91244-9D20-4C26-98DF-C8C72C7860A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="116">
   <si>
     <t>Topic</t>
   </si>
@@ -362,22 +363,22 @@
     <t>RotatedSearch</t>
   </si>
   <si>
-    <t>Cute little cat</t>
-  </si>
-  <si>
-    <t>CuteCatImpl</t>
-  </si>
-  <si>
-    <t>BiggestXOR problem</t>
-  </si>
-  <si>
-    <t>BiggestXOR</t>
+    <t>array</t>
+  </si>
+  <si>
+    <t>O(N)</t>
+  </si>
+  <si>
+    <t>Find any pair of elemens for a given sum</t>
+  </si>
+  <si>
+    <t>FindPair</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -392,12 +393,18 @@
       <family val="4"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -412,11 +419,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -730,10 +738,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
       <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
@@ -1001,7 +1009,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1015,7 +1023,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1029,7 +1037,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1043,7 +1051,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1054,7 +1062,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1068,7 +1076,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1082,7 +1090,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1096,7 +1104,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1107,7 +1115,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1118,7 +1126,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1129,7 +1137,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>30</v>
       </c>
@@ -1140,7 +1148,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>31</v>
       </c>
@@ -1151,7 +1159,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>32</v>
       </c>
@@ -1162,119 +1170,159 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>33</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E30" t="s">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H30" t="s">
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>34</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E31" t="s">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H31" t="s">
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>35</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E32" t="s">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H32" t="s">
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>36</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E33" t="s">
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H33" t="s">
+      <c r="G33" s="2"/>
+      <c r="H33" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>37</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E34" t="s">
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H34" t="s">
+      <c r="G34" s="2"/>
+      <c r="H34" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>38</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="H35" t="s">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>39</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H36" t="s">
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>40</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="H37" t="s">
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>41</v>
       </c>
@@ -1291,7 +1339,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>42</v>
       </c>
@@ -1302,7 +1350,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>43</v>
       </c>
@@ -1313,7 +1361,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>44</v>
       </c>
@@ -1324,7 +1372,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>45</v>
       </c>
@@ -1335,59 +1383,63 @@
         <v>105</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>46</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E43" t="s">
+      <c r="D43" s="2"/>
+      <c r="E43" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="H43" t="s">
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>47</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E44" t="s">
+      <c r="C44" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="H44" t="s">
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>48</v>
       </c>
       <c r="B45" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" t="s">
         <v>112</v>
       </c>
-      <c r="C45" t="s">
-        <v>41</v>
+      <c r="E45" t="s">
+        <v>113</v>
+      </c>
+      <c r="F45" t="s">
+        <v>113</v>
       </c>
       <c r="H45" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>49</v>
-      </c>
-      <c r="B46" t="s">
-        <v>114</v>
-      </c>
-      <c r="H46" t="s">
         <v>115</v>
       </c>
     </row>

--- a/ProblemsSolved.xlsx
+++ b/ProblemsSolved.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kalyan.Priyanka\IdeaProjects\lc_1000_problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA91244-9D20-4C26-98DF-C8C72C7860A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12FD8B6-4C80-4DB0-BD33-BC2E1E1B8CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="119">
   <si>
     <t>Topic</t>
   </si>
@@ -373,6 +373,15 @@
   </si>
   <si>
     <t>FindPair</t>
+  </si>
+  <si>
+    <t>Print all triplets sorted internally and across</t>
+  </si>
+  <si>
+    <t>O(N2)</t>
+  </si>
+  <si>
+    <t>FindAllTriplets</t>
   </si>
 </sst>
 </file>
@@ -739,10 +748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1443,6 +1452,28 @@
         <v>115</v>
       </c>
     </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
+        <v>116</v>
+      </c>
+      <c r="E46" t="s">
+        <v>117</v>
+      </c>
+      <c r="F46" t="s">
+        <v>22</v>
+      </c>
+      <c r="H46" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
